--- a/biology/Zoologie/Anomala_dubia/Anomala_dubia.xlsx
+++ b/biology/Zoologie/Anomala_dubia/Anomala_dubia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anomala dubia est une espèce d'insectes de l'ordre des coléoptères, de la famille des Scarabaeidae, de la sous-famille des Rutelinae et du genre Anomala.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aspect d'un hanneton comme Amphimallon solstitialis mais plus petit : longueur 13 à 15 mm, non velu. Couleurs brillantes varient de brun à vert. Élytres striés. Griffes bifides.
 </t>
@@ -542,11 +556,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'espèce est présente en :
-France et notamment dans le Nord-Pas-de-Calais où elle a été recensée en 2009[1] ;
-Belgique, particulièrement en Flandres, mais aussi dans le Brabant et le Hainaut[2].</t>
+France et notamment dans le Nord-Pas-de-Calais où elle a été recensée en 2009 ;
+Belgique, particulièrement en Flandres, mais aussi dans le Brabant et le Hainaut.</t>
         </is>
       </c>
     </row>
@@ -574,7 +590,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Affectionne les terrains sablonneux où il s'enfouit à faible profondeur pour pondre. Vol rapide par temps chaud.
 </t>
@@ -605,9 +623,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (7 juin 2020)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (7 juin 2020) :
 Anomala dubia subsp. bicolor Medvedev, 1949
 Anomala dubia subsp. coerulescens Medvedev, 1949
 Anomala dubia subsp. fulva Dellacasa, 1970
@@ -643,13 +663,15 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (7 juin 2020)[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (7 juin 2020) :
 Scarabaeus dubius Scopoli, 1763
 Melolontha julii Fabricius, 1792
 Anomala dubia var. pygidialis Schilsky, 1888 nec Kirsch, 1876
-Selon Catalogue of Life                                   (25 août 2014)[5] :
+Selon Catalogue of Life                                   (25 août 2014) :
 Anomala aenea Della Beffa, 1910
 Anomala aurulenta Dalla Torre, 1879
 Anomala bicolor Dalla Torre, 1879
